--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_deepseek_dbpedia_think_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_deepseek_dbpedia_think_results_analysis.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia-think\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC14EE6-B840-4922-855B-10C373748CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="445">
   <si>
     <t>Question</t>
   </si>
@@ -1381,9 +1390,6 @@
   </si>
   <si>
     <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Missing rdf:type</t>
@@ -1401,8 +1407,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,17 +1467,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1509,7 +1523,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1543,6 +1557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1577,9 +1592,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1752,14 +1768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1863,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1889,7 +1905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1931,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1941,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1964,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2019,7 +2035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2042,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2120,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2149,7 +2165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2172,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2250,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2279,7 +2295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2305,7 +2321,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2354,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2380,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2409,7 +2425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2435,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2461,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2487,7 +2503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2513,7 +2529,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2565,7 +2581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2591,7 +2607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2617,7 +2633,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2643,7 +2659,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2669,7 +2685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2721,7 +2737,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2747,7 +2763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2773,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2799,7 +2815,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2822,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2851,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2874,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2903,7 +2919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2955,7 +2971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2978,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3007,7 +3023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3033,7 +3049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3059,7 +3075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3085,7 +3101,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3111,7 +3127,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3137,7 +3153,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3163,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3189,7 +3205,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3215,7 +3231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3241,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3293,7 +3309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3319,7 +3335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3345,7 +3361,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3371,7 +3387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3394,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3423,7 +3439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3449,7 +3465,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3475,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3501,7 +3517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3527,7 +3543,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3553,7 +3569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3579,7 +3595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3605,7 +3621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3631,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3654,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3683,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3709,7 +3725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3735,7 +3751,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3758,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3787,7 +3803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3810,10 +3826,10 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3836,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3865,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3891,7 +3907,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3917,7 +3933,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3943,7 +3959,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3995,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4021,7 +4037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4047,7 +4063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4073,7 +4089,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4099,7 +4115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4125,7 +4141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4151,7 +4167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4177,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4203,7 +4219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4229,7 +4245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4255,7 +4271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4281,7 +4297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4307,7 +4323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4330,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4356,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4382,10 +4398,11 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_deepseek_dbpedia_think_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_deepseek_dbpedia_think_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia-think\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC14EE6-B840-4922-855B-10C373748CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED85AC7-EC93-4358-815D-748627F4DBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="439">
   <si>
     <t>Question</t>
   </si>
@@ -349,304 +349,992 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbpedia-owl:founder ?founder . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Stanley_Kubrick }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy dbr:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbr:Skype dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a dbo:SoccerClub ; dbo:league dbr:Bundesliga . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?actor WHERE { ?movie a dbo:Film . ?movie dbo:director dbr:William_Shatner . ?movie dbo:starring ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?elevation WHERE { ?uri a dbo:Mountain ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a dbo:Film ; dbo:starring dbpedia:Leonardo_DiCaprio . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?developer WHERE { dbr:Minecraft dbo:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?album ?label WHERE { ?album dbo:artist dbpedia:Elvis_Presley . ?album dbo:releaseDate ?date . ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Toy_Story&gt; dbo:runtime ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Trumpeter ; dbo:instrument dbr:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbo:director dbr:Garry_Marshall . ?film dbo:starring dbr:Julia_Roberts . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?year WHERE { &lt;http://dbpedia.org/resource/Rachel_Stevens&gt; dbpedia-owl:birthYear ?year . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { dbpedia:Yokohama_Marine_Tower dbo:height ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri ?elevation FROM &lt;http://dbpedia.org/sparql&gt; WHERE { ?uri rdf:type dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; dbpedia:doctoralAdvisor ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?company WHERE { ?company dbo:owner dbr:Donald_Trump . ?company a dbo:Company . MINUS { ?company dbo:dissolved ?x } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?spouse WHERE { dbpedia:Tom_Cruise dbo:spouse ?spouse . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia:Eurasia dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?author WHERE { &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; &lt;http://dbpedia.org/ontology/author&gt; ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:John_Adams dbo:birthDate ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/European_Union&gt; dbo:populationTotal ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:William_Shakespeare dbo:deathDate ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Rocket . ?uri dbo:launchSite dbr:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island . ?uri dbo:country dbpedia:Japan . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:World_of_Warcraft dbo:developer ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company ; dbc:Advertising . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?almaMater WHERE { dbpedia:Angela_Merkel dbo:almaMater ?almaMater . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbpedia-owl:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbr:Mount_Everest dbo:locatedInArea ?country . ?country a dbo:Country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:John_F._Kennedy dbo:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri ?uriLabel WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://purl.org/dc/terms/subject&gt; &lt;http://dbpedia.org/ontology/Swimmer&gt; . ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Moscow&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?s1 WHERE { ?s1 a dbo:Film . ?s1 dbo:starring dbr:Alec_Guinness . ?s1 dbo:releaseDate ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia:Earth . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { db:Cairo dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?person WHERE { ?person a dbo:Person . ?person dbo:birthPlace dbr:Heraklion . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; dbo:child ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?elevation WHERE { dbr:Düsseldorf_Airport dbo:elevation ?elevation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mecca dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX db0: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; db0:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?author WHERE { dbpedia:The_Pillars_of_the_Earth dbp:author ?author. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre ?genreLabel WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . ?genre rdfs:label ?genreLabel . FILTER(langMatches(lang(?genreLabel), 'en')) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { dbr:Frank_Sinatra dbo:birthPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:TelevisionShow ; dbo:creator dbr:Walt_Disney . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbp:country dbpedia:Sweden . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { &lt;http://dbpedia.org/resource/Apple_Inc.&gt; dbpedia-owl:netIncome ?netIncome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Abraham_Lincoln dbo:deathPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?capital WHERE { dbr:Himalayas dbo:country ?country . ?country dbo:capital ?capital . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Michael_Jordan&gt; dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . FILTER NOT EXISTS { ?film a dbo:Person } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency dbpedia:West_African_CFA_franc }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Iraq&gt; dbp:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbp:country dbr:Greece ; dbo:ideology dbr:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { dbpedia:Charmed dbo:starring ?actor . ?actor dbo:birthDate ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movement WHERE { dbr:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?movement . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX onto: &lt;http://www.ontobee.org/ontology/dbpedia/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace dbpedia:Germany . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?architect WHERE { dbr:Brooklyn_Bridge dbo:architect ?architect . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; dbo:composer ?composer . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director dbr:Francis_Ford_Coppola . }</t>
-  </si>
-  <si>
-    <t>SELECT ?name WHERE { &lt;http://dbpedia.org/resource/Adele&gt; &lt;http://dbpedia.org/property/birthName&gt; ?name . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:type dbpedia-owl:Album . ?uri dbpedia-owl:artist dbpedia:Queen . ?uri dbpedia-owl:releaseDate ?date } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { { ?uri dbo:birthPlace dbr:Vienna . ?uri dbo:deathPlace dbr:Berlin . } UNION { ?uri dbo:deathPlace dbr:Berlin . ?uri dbo:birthPlace dbr:Vienna . } UNION { ?uri dbo:birthPlace dbr:Vienna . ?uri dbo:deathPlace dbr:Berlin . } UNION { ?uri dbo:deathPlace dbr:Berlin . ?uri dbo:birthPlace dbr:Vienna . } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses dbr:Seine . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?musician WHERE { ?book rdf:type dbo:Book . ?book dbo:author ?musician . ?musician dbo:occupation "Musician" . } GROUP BY ?musician ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:TelevisionShow . ?uri dbpedia-owl:creator &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:occupation &lt;http://dbpedia.org/ontology/Writer&gt; . ?uri dbo:award dbr:Nobel_Prize_in_Literature . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?discoverer WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; a &lt;http://dbpedia.org/ontology/DwarfPlanet&gt; . &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?discoverer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res dbo:occupation dbr:Bandleader . ?res dbo:instrument dbr:Trumpet . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER (?height &gt; 200) } &lt;/sparql&gt; The final SPARQL query is:</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?o1 WHERE { dbr:Canada dbo:capital ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:SoccerPlayer ; dbo:birthPlace dbr:Malta . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; dbo:capital ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub a dbo:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Astronaut . { ?uri dbo:nationality dbc:Soviet_Union } UNION { ?uri dbo:nationality dbc:Russia } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?uri . FILTER (rdf:type(?uri) = &lt;http://dbpedia.org/ontology/Person&gt;) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Batman dbo:creator ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?uri . ?uri dbo:populationTotal ?number . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; dbo:areaTotal ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?employees WHERE { dbpedia:IBM dbpedia-owl:numberOfEmployees ?employees . }</t>
-  </si>
-  <si>
-    <t>SELECT ?value WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?value . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film . ?uri dbo:country &lt;http://dbpedia.org/resource/Denmark&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Himalayas&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri ?area WHERE { ?uri rdf:type dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { dbr:Angela_Merkel dbo:almaMater ?res . ?res a dbo:EducationalInstitution . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?creator WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/property/creator&gt; ?creator . }</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?founder WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbpedia-owl:founder ?founder . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Stanley_Kubrick }</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy dbr:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { dbr:Skype dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a dbo:SoccerClub ; dbo:league dbr:Bundesliga . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?actor WHERE { ?movie a dbo:Film . ?movie dbo:director dbr:William_Shatner . ?movie dbo:starring ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?elevation WHERE { ?uri a dbo:Mountain ; dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a dbo:Film ; dbo:starring dbpedia:Leonardo_DiCaprio . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?developer WHERE { dbr:Minecraft dbo:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?album ?label WHERE { ?album dbo:artist dbpedia:Elvis_Presley . ?album dbo:releaseDate ?date . ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Toy_Story&gt; dbo:runtime ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Trumpeter ; dbo:instrument dbr:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbo:director dbr:Garry_Marshall . ?film dbo:starring dbr:Julia_Roberts . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?year WHERE { &lt;http://dbpedia.org/resource/Rachel_Stevens&gt; dbpedia-owl:birthYear ?year . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri . } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?num WHERE { dbpedia:Yokohama_Marine_Tower dbo:height ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri ?elevation FROM &lt;http://dbpedia.org/sparql&gt; WHERE { ?uri rdf:type dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Albert_Einstein&gt; dbpedia:doctoralAdvisor ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?company WHERE { ?company dbo:owner dbr:Donald_Trump . ?company a dbo:Company . MINUS { ?company dbo:dissolved ?x } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?spouse WHERE { dbpedia:Tom_Cruise dbo:spouse ?spouse . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbpedia:Eurasia dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?author WHERE { &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; &lt;http://dbpedia.org/ontology/author&gt; ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:John_Adams dbo:birthDate ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/European_Union&gt; dbo:populationTotal ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:William_Shakespeare dbo:deathDate ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Rocket . ?uri dbo:launchSite dbr:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island . ?uri dbo:country dbpedia:Japan . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:World_of_Warcraft dbo:developer ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company ; dbc:Advertising . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?almaMater WHERE { dbpedia:Angela_Merkel dbo:almaMater ?almaMater . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbpedia-owl:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbr:Mount_Everest dbo:locatedInArea ?country . ?country a dbo:Country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbr:John_F._Kennedy dbo:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri ?uriLabel WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . SERVICE wikibase:label { bd:serviceParam wikibase:language "en" . } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://purl.org/dc/terms/subject&gt; &lt;http://dbpedia.org/ontology/Swimmer&gt; . ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Moscow&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?s1 WHERE { ?s1 a dbo:Film . ?s1 dbo:starring dbr:Alec_Guinness . ?s1 dbo:releaseDate ?o1 . } ORDER BY DESC(?o1) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res a dbpedia-owl:Mountain . ?res dbpedia-owl:elevation ?elevation . ?res dbpedia-owl:location dbpedia:Earth . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX db: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { db:Cairo dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?person WHERE { ?person a dbo:Person . ?person dbo:birthPlace dbr:Heraklion . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; dbo:child ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?elevation WHERE { dbr:Düsseldorf_Airport dbo:elevation ?elevation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Mecca dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db0: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; db0:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?author WHERE { dbpedia:The_Pillars_of_the_Earth dbp:author ?author. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?genre ?genreLabel WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . ?genre rdfs:label ?genreLabel . FILTER(langMatches(lang(?genreLabel), 'en')) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { dbr:Frank_Sinatra dbo:birthPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:TelevisionShow ; dbo:creator dbr:Walt_Disney . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbp:country dbpedia:Sweden . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?netIncome WHERE { &lt;http://dbpedia.org/resource/Apple_Inc.&gt; dbpedia-owl:netIncome ?netIncome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Abraham_Lincoln dbo:deathPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?capital WHERE { dbr:Himalayas dbo:country ?country . ?country dbo:capital ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Michael_Jordan&gt; dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . FILTER NOT EXISTS { ?film a dbo:Person } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:currency dbpedia:West_African_CFA_franc }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Iraq&gt; dbp:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbp:country dbr:Greece ; dbo:ideology dbr:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { dbpedia:Charmed dbo:starring ?actor . ?actor dbo:birthDate ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movement WHERE { dbr:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?movement . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX onto: &lt;http://www.ontobee.org/ontology/dbpedia/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace dbpedia:Germany . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?architect WHERE { dbr:Brooklyn_Bridge dbo:architect ?architect . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; dbo:composer ?composer . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Film ; dbo:director dbr:Francis_Ford_Coppola . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?name WHERE { &lt;http://dbpedia.org/resource/Adele&gt; &lt;http://dbpedia.org/property/birthName&gt; ?name . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia-owl:type dbpedia-owl:Album . ?uri dbpedia-owl:artist dbpedia:Queen . ?uri dbpedia-owl:releaseDate ?date } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; &lt;http://dbpedia.org/ontology/currency&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { { ?uri dbo:birthPlace dbr:Vienna . ?uri dbo:deathPlace dbr:Berlin . } UNION { ?uri dbo:deathPlace dbr:Berlin . ?uri dbo:birthPlace dbr:Vienna . } UNION { ?uri dbo:birthPlace dbr:Vienna . ?uri dbo:deathPlace dbr:Berlin . } UNION { ?uri dbo:deathPlace dbr:Berlin . ?uri dbo:birthPlace dbr:Vienna . } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses dbr:Seine . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?musician WHERE { ?book rdf:type dbo:Book . ?book dbo:author ?musician . ?musician dbo:occupation "Musician" . } GROUP BY ?musician ORDER BY DESC(COUNT(?book)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:TelevisionShow . ?uri dbpedia-owl:creator &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:occupation &lt;http://dbpedia.org/ontology/Writer&gt; . ?uri dbo:award dbr:Nobel_Prize_in_Literature . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?discoverer WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; a &lt;http://dbpedia.org/ontology/DwarfPlanet&gt; . &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?discoverer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { ?res dbo:occupation dbr:Bandleader . ?res dbo:instrument dbr:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER (?height &gt; 200) } &lt;/sparql&gt; The final SPARQL query is:</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?o1 WHERE { dbr:Canada dbo:capital ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:SoccerPlayer ; dbo:birthPlace dbr:Malta . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; dbo:capital ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub a dbo:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Astronaut . { ?uri dbo:nationality dbc:Soviet_Union } UNION { ?uri dbo:nationality dbc:Russia } }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?uri . FILTER (rdf:type(?uri) = &lt;http://dbpedia.org/ontology/Person&gt;) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbr:Batman dbo:creator ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?number WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?uri . ?uri dbo:populationTotal ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; dbo:areaTotal ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?employees WHERE { dbpedia:IBM dbpedia-owl:numberOfEmployees ?employees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?value WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?film WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film . ?uri dbo:country &lt;http://dbpedia.org/resource/Denmark&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Himalayas&gt; &lt;http://dbpedia.org/ontology/country&gt; ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri ?area WHERE { ?uri rdf:type dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { dbr:Angela_Merkel dbo:almaMater ?res . ?res a dbo:EducationalInstitution . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?creator WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; &lt;http://dbpedia.org/property/creator&gt; ?creator . }</t>
   </si>
   <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
@@ -961,48 +1649,54 @@
     <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+  </si>
+  <si>
+    <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['1986-02-28']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+  </si>
+  <si>
+    <t>['60.0']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Rags_to_Riches_(song)', 'http://dbpedia.org/resource/Columbia_Records']</t>
+  </si>
+  <si>
+    <t>['4860']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/François_Dauverné', 'http://dbpedia.org/resource/Idrees_Sulieman', 'http://dbpedia.org/resource/Jean-Claude_Borelly', 'http://dbpedia.org/resource/Lionel_Ferbos', 'http://dbpedia.org/resource/Malcolm_McNab', 'http://dbpedia.org/resource/Mark_Pender', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Marty_Marsala', 'http://dbpedia.org/resource/Rashawn_Ross', 'http://dbpedia.org/resource/Rhys_Chatham', 'http://dbpedia.org/resource/Tine_Thing_Helseth', 'http://dbpedia.org/resource/Toshinori_Kondo', 'http://dbpedia.org/resource/Valentine_Snow', 'http://dbpedia.org/resource/Victor_Coulsen', 'http://dbpedia.org/resource/Wilbur_Harden', 'http://dbpedia.org/resource/William_Adam_(trumpeter)']</t>
+  </si>
+  <si>
+    <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+  </si>
+  <si>
+    <t>['1978']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+  </si>
+  <si>
+    <t>['106.07']</t>
+  </si>
+  <si>
     <t>['Query failed']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
-  </si>
-  <si>
-    <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
-  </si>
-  <si>
-    <t>['33']</t>
-  </si>
-  <si>
-    <t>['1986-02-28']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
-  </si>
-  <si>
-    <t>['60.0']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Rags_to_Riches_(song)', 'http://dbpedia.org/resource/Columbia_Records']</t>
-  </si>
-  <si>
-    <t>['4860']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/François_Dauverné', 'http://dbpedia.org/resource/Idrees_Sulieman', 'http://dbpedia.org/resource/Jean-Claude_Borelly', 'http://dbpedia.org/resource/Lionel_Ferbos', 'http://dbpedia.org/resource/Malcolm_McNab', 'http://dbpedia.org/resource/Mark_Pender', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Marty_Marsala', 'http://dbpedia.org/resource/Rashawn_Ross', 'http://dbpedia.org/resource/Rhys_Chatham', 'http://dbpedia.org/resource/Tine_Thing_Helseth', 'http://dbpedia.org/resource/Toshinori_Kondo', 'http://dbpedia.org/resource/Valentine_Snow', 'http://dbpedia.org/resource/Victor_Coulsen', 'http://dbpedia.org/resource/Wilbur_Harden', 'http://dbpedia.org/resource/William_Adam_(trumpeter)']</t>
-  </si>
-  <si>
-    <t>['1978']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
-  </si>
-  <si>
-    <t>['106.07']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
   </si>
   <si>
@@ -1024,6 +1718,9 @@
     <t>['446828803']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Renminbi']</t>
+  </si>
+  <si>
     <t>['1616-04-23']</t>
   </si>
   <si>
@@ -1036,6 +1733,12 @@
     <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
   </si>
   <si>
@@ -1066,6 +1769,12 @@
     <t>['http://dbpedia.org/resource/Ken_Follett']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
   </si>
   <si>
@@ -1120,6 +1829,9 @@
     <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/Ottawa']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
   </si>
   <si>
@@ -1162,9 +1874,6 @@
     <t>['http://dbpedia.org/resource/Leipzig_University']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Alpide_belt']</t>
   </si>
   <si>
@@ -1174,9 +1883,6 @@
     <t>['http://dbpedia.org/resource/RCA_Victor']</t>
   </si>
   <si>
-    <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
   </si>
   <si>
@@ -1189,21 +1895,12 @@
     <t>['http://dbpedia.org/resource/Katie_Holmes', 'http://dbpedia.org/resource/Nicole_Kidman']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Renminbi']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
   </si>
   <si>
     <t>['198']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/East_River']</t>
   </si>
   <si>
@@ -1219,12 +1916,6 @@
     <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
   </si>
   <si>
-    <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
-  </si>
-  <si>
     <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
   </si>
   <si>
@@ -1262,9 +1953,6 @@
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/Ottawa']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
@@ -1281,127 +1969,91 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a dbo:SoccerClub ; dbo:league dbr:Bundesliga . }",\n        "startIndex": 36,\n        "stopIndex": 49\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a dbo:SoccerClub ; dbo:league dbr:Bundesliga . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 121,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri ?elevation FROM &lt;http://dbpedia.org/sparql&gt; WHERE { ?uri rdf:type dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 498,\n        "stopIndex": 529\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri ?elevation FROM &lt;http://dbpedia.org/sparql&gt; WHERE { ?uri rdf:type dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbo:director dbr:Garry_Marshall . ?film dbo:starring dbr:Julia_Roberts . }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbo:director dbr:Garry_Marshall . ?film dbo:starring dbr:Julia_Roberts . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 72,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:World_of_Warcraft dbo:developer ?uri . }",\n        "startIndex": 406,\n        "stopIndex": 430\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:World_of_Warcraft dbo:developer ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Not supported: FROM clauses are currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 121,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri ?elevation FROM &lt;http://dbpedia.org/sparql&gt; WHERE { ?uri rdf:type dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 121,\n        "stopIndex": 152\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri ?elevation FROM &lt;http://dbpedia.org/sparql&gt; WHERE { ?uri rdf:type dbpedia-owl:Mountain ; dbpedia-owl:locatedInArea dbpedia:Italy ; dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 168,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company ; dbc:Advertising . }",\n        "startIndex": 450,\n        "stopIndex": 450\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company ; dbc:Advertising . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 61,\n        "query": "SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?currency . }",\n        "startIndex": 61,\n        "stopIndex": 72\n    },\n    "query": "SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?currency . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 138,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri ?uriLabel WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n        "startIndex": 515,\n        "stopIndex": 528\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri ?uriLabel WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 72,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:World_of_Warcraft dbo:developer ?uri . }",\n        "startIndex": 72,\n        "stopIndex": 96\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:World_of_Warcraft dbo:developer ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 108,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?genre ?genreLabel WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . ?genre rdfs:label ?genreLabel . FILTER(langMatches(lang(?genreLabel), \'en\')) }",\n        "startIndex": 485,\n        "stopIndex": 494\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?genre ?genreLabel WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . ?genre rdfs:label ?genreLabel . FILTER(langMatches(lang(?genreLabel), \'en\')) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 168,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company ; dbc:Advertising . }",\n        "startIndex": 168,\n        "stopIndex": 168\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Company ; dbc:Advertising . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 144,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbp:country dbpedia:Sweden . }",\n        "startIndex": 435,\n        "stopIndex": 448\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbp:country dbpedia:Sweden . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 111,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . }",\n        "startIndex": 111,\n        "stopIndex": 118\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:TelevisionShow . ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?filmadbo:person}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 197,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . FILTER NOT EXISTS { ?film a dbo:Person } }",\n        "startIndex": 488,\n        "stopIndex": 520\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . FILTER NOT EXISTS { ?film a dbo:Person } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 130,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbpedia-owl:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . }",\n        "startIndex": 130,\n        "stopIndex": 137\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film rdf:type dbo:Film . ?film dbpedia-owl:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 191,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX onto: &lt;http://www.ontobee.org/ontology/dbpedia/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace dbpedia:Germany . }",\n        "startIndex": 568,\n        "stopIndex": 582\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX onto: &lt;http://www.ontobee.org/ontology/dbpedia/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace dbpedia:Germany . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 138,\n        "query": "SELECT DISTINCT ?uri ?uriLabel WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n        "startIndex": 138,\n        "stopIndex": 151\n    },\n    "query": "SELECT DISTINCT ?uri ?uriLabel WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; &lt;http://dbpedia.org/ontology/crosses&gt; ?uri . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"en\\" . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 131,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses dbr:Seine . }",\n        "startIndex": 422,\n        "stopIndex": 422\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses dbr:Seine . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
+Response:
+b'{\n    "exception": "Triples should have at least one variable. Not the case in: {s: &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt;, p: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;, o: &lt;http://dbpedia.org/ontology/DwarfPlanet&gt;}. In file \\"/app/src/engine/QueryPlanner.cpp \\" at line 677",\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?discoverer WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; a &lt;http://dbpedia.org/ontology/DwarfPlanet&gt; . &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?discoverer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 82,\n        "query": "SELECT DISTINCT ?genre ?genreLabel WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . ?genre rdfs:label ?genreLabel . FILTER(langMatches(lang(?genreLabel), \'en\')) }",\n        "startIndex": 82,\n        "stopIndex": 90\n    },\n    "query": "SELECT DISTINCT ?genre ?genreLabel WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . ?genre rdfs:label ?genreLabel . FILTER(langMatches(lang(?genreLabel), \'en\')) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;/sparql&gt;\\": mismatched input \'&lt;/sparql&gt;\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 162,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER (?height &gt; 200) } &lt;/sparql&gt; The final SPARQL query is:",\n        "startIndex": 539,\n        "stopIndex": 547\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER (?height &gt; 200) } &lt;/sparql&gt; The final SPARQL query is:",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { dbr:Frank_Sinatra dbo:birthPlace ?uri }",\n        "startIndex": 29,\n        "stopIndex": 45\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { dbr:Frank_Sinatra dbo:birthPlace ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 69,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }",\n        "startIndex": 446,\n        "stopIndex": 446\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 77,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1",\n        "startIndex": 77,\n        "stopIndex": 84\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:City ; dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 144,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbp:country dbpedia:Sweden . }",\n        "startIndex": 144,\n        "stopIndex": 157\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbp:country dbpedia:Sweden . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Built-in function \\"notexists{?filmadbo:person}\\"  not yet implemented; if you need it, just add it to SparqlQleverVisitor.cpp::visitTypesafe(Parser::BuiltInCallContext following the already implemented functions there",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 197,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . FILTER NOT EXISTS { ?film a dbo:Person } }",\n        "startIndex": 197,\n        "stopIndex": 229\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film dbo:director dbr:Clint_Eastwood ; dbo:starring dbr:Clint_Eastwood . FILTER NOT EXISTS { ?film a dbo:Person } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 214,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbp:country dbr:Greece ; dbo:ideology dbr:Pro-Europeanism . }",\n        "startIndex": 214,\n        "stopIndex": 223\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbp:country dbr:Greece ; dbo:ideology dbr:Pro-Europeanism . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 191,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX onto: &lt;http://www.ontobee.org/ontology/dbpedia/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace dbpedia:Germany . }",\n        "startIndex": 191,\n        "stopIndex": 205\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX onto: &lt;http://www.ontobee.org/ontology/dbpedia/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:Actor . ?uri dbpedia-owl:birthPlace dbpedia:Germany . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 131,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses dbr:Seine . }",\n        "startIndex": 131,\n        "stopIndex": 131\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses dbr:Seine . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
-Response:
-b'{\n    "exception": "Triples should have at least one variable. Not the case in: {s: &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt;, p: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;, o: &lt;http://dbpedia.org/ontology/DwarfPlanet&gt;}. In file \\"/app/src/engine/QueryPlanner.cpp \\" at line 677",\n    "query": "SELECT DISTINCT ?discoverer WHERE { &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; a &lt;http://dbpedia.org/ontology/DwarfPlanet&gt; . &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; &lt;http://dbpedia.org/ontology/discoverer&gt; ?discoverer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;/sparql&gt;\\": mismatched input \'&lt;/sparql&gt;\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 162,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER (?height &gt; 200) } &lt;/sparql&gt; The final SPARQL query is:",\n        "startIndex": 162,\n        "stopIndex": 170\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/BasketballPlayer&gt; . ?uri &lt;http://dbpedia.org/ontology/height&gt; ?height . FILTER (?height &gt; 200) } &lt;/sparql&gt; The final SPARQL query is:",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 69,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }",\n        "startIndex": 69,\n        "stopIndex": 69\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/Film&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbr was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 28,\n        "query": "SELECT DISTINCT ?o1 WHERE { dbr:Canada dbo:capital ?o1 . }",\n        "startIndex": 28,\n        "stopIndex": 37\n    },\n    "query": "SELECT DISTINCT ?o1 WHERE { dbr:Canada dbo:capital ?o1 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Not supported: Function \\"&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;\\" is currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 251,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?uri . FILTER (rdf:type(?uri) = &lt;http://dbpedia.org/ontology/Person&gt;) }",\n        "startIndex": 251,\n        "stopIndex": 264\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?uri . FILTER (rdf:type(?uri) = &lt;http://dbpedia.org/ontology/Person&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Not supported: Function \\"&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt;\\" is currently not supported by QLever.",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 251,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?uri . FILTER (rdf:type(?uri) = &lt;http://dbpedia.org/ontology/Person&gt;) }",\n        "startIndex": 527,\n        "stopIndex": 540\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?uri . FILTER (rdf:type(?uri) = &lt;http://dbpedia.org/ontology/Person&gt;) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
   </si>
   <si>
     <t>Query Bad Formed</t>
   </si>
   <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
     <t>Structural Error</t>
   </si>
   <si>
-    <t>Resource treated as Ontology</t>
-  </si>
-  <si>
-    <t>Ontology treated as Resource</t>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
   </si>
 </sst>
 </file>
@@ -1769,13 +2421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,8 +2452,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1827,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1853,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +2540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1905,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1919,19 +2580,19 @@
         <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +2618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2632,7 @@
         <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
         <v>417</v>
@@ -1980,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2009,7 +2670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2035,7 +2696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2049,7 +2710,7 @@
         <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>417</v>
@@ -2058,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2127,7 +2788,7 @@
         <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
         <v>417</v>
@@ -2136,10 +2797,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I14" t="s">
+        <v>437</v>
+      </c>
+      <c r="J14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2165,7 +2832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2846,7 @@
         <v>322</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
         <v>417</v>
@@ -2188,10 +2855,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="I16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2202,22 +2872,22 @@
         <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E17" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2228,10 +2898,10 @@
         <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F18" t="s">
         <v>417</v>
@@ -2243,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2254,10 +2924,10 @@
         <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E19" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
         <v>417</v>
@@ -2266,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2280,10 +2950,10 @@
         <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F20" t="s">
         <v>417</v>
@@ -2295,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2306,22 +2976,25 @@
         <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E21" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2332,10 +3005,10 @@
         <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
         <v>417</v>
@@ -2347,7 +3020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2358,10 +3031,10 @@
         <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F23" t="s">
         <v>417</v>
@@ -2370,10 +3043,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="I23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2384,10 +3060,10 @@
         <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E24" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F24" t="s">
         <v>417</v>
@@ -2396,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2410,10 +3086,10 @@
         <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F25" t="s">
         <v>417</v>
@@ -2425,7 +3101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2436,10 +3112,10 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F26" t="s">
         <v>417</v>
@@ -2451,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2462,10 +3138,10 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F27" t="s">
         <v>417</v>
@@ -2477,7 +3153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2488,10 +3164,10 @@
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F28" t="s">
         <v>417</v>
@@ -2503,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2514,22 +3190,22 @@
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="E29" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2540,10 +3216,10 @@
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F30" t="s">
         <v>417</v>
@@ -2555,7 +3231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2566,10 +3242,10 @@
         <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F31" t="s">
         <v>417</v>
@@ -2581,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2592,10 +3268,10 @@
         <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F32" t="s">
         <v>417</v>
@@ -2607,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2618,22 +3294,25 @@
         <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2644,22 +3323,28 @@
         <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E34" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2670,10 +3355,10 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F35" t="s">
         <v>417</v>
@@ -2685,7 +3370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2696,22 +3381,22 @@
         <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="E36" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="F36" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2722,22 +3407,22 @@
         <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="E37" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="F37" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2748,10 +3433,10 @@
         <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E38" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F38" t="s">
         <v>417</v>
@@ -2763,7 +3448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2774,10 +3459,10 @@
         <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E39" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F39" t="s">
         <v>417</v>
@@ -2789,7 +3474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2800,22 +3485,25 @@
         <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F40" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2826,10 +3514,10 @@
         <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E41" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F41" t="s">
         <v>417</v>
@@ -2838,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2852,10 +3540,10 @@
         <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F42" t="s">
         <v>417</v>
@@ -2867,7 +3555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2878,10 +3566,10 @@
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E43" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F43" t="s">
         <v>417</v>
@@ -2890,10 +3578,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2904,10 +3595,10 @@
         <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E44" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
         <v>417</v>
@@ -2919,7 +3610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2930,10 +3621,10 @@
         <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E45" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F45" t="s">
         <v>417</v>
@@ -2945,7 +3636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2956,10 +3647,10 @@
         <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E46" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F46" t="s">
         <v>417</v>
@@ -2971,7 +3662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2982,10 +3673,10 @@
         <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E47" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F47" t="s">
         <v>417</v>
@@ -2994,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -3008,10 +3699,10 @@
         <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F48" t="s">
         <v>417</v>
@@ -3023,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -3034,10 +3725,10 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E49" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F49" t="s">
         <v>417</v>
@@ -3049,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3060,10 +3751,10 @@
         <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="E50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F50" t="s">
         <v>417</v>
@@ -3075,7 +3766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3086,22 +3777,25 @@
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E51" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F51" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3112,22 +3806,22 @@
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="F52" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3138,22 +3832,22 @@
         <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="F53" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3164,10 +3858,10 @@
         <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E54" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
         <v>417</v>
@@ -3179,7 +3873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3190,22 +3884,25 @@
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E55" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3216,10 +3913,10 @@
         <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E56" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F56" t="s">
         <v>417</v>
@@ -3231,7 +3928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3242,10 +3939,10 @@
         <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="E57" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="F57" t="s">
         <v>417</v>
@@ -3257,7 +3954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3268,10 +3965,10 @@
         <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E58" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F58" t="s">
         <v>417</v>
@@ -3283,7 +3980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3294,10 +3991,10 @@
         <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E59" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F59" t="s">
         <v>417</v>
@@ -3309,7 +4006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3320,10 +4017,10 @@
         <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
         <v>417</v>
@@ -3335,7 +4032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3346,22 +4043,28 @@
         <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E61" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I61" t="s">
+        <v>437</v>
+      </c>
+      <c r="J61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3372,10 +4075,10 @@
         <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E62" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F62" t="s">
         <v>417</v>
@@ -3387,7 +4090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3398,10 +4101,10 @@
         <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E63" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F63" t="s">
         <v>417</v>
@@ -3410,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3424,10 +4127,10 @@
         <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E64" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F64" t="s">
         <v>417</v>
@@ -3439,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3450,22 +4153,22 @@
         <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F65" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3476,10 +4179,10 @@
         <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E66" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F66" t="s">
         <v>417</v>
@@ -3491,7 +4194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3502,10 +4205,10 @@
         <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
         <v>417</v>
@@ -3517,7 +4220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3528,22 +4231,25 @@
         <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I68" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3554,10 +4260,10 @@
         <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E69" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F69" t="s">
         <v>417</v>
@@ -3569,7 +4275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3580,10 +4286,10 @@
         <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E70" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F70" t="s">
         <v>417</v>
@@ -3595,7 +4301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3606,10 +4312,10 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E71" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F71" t="s">
         <v>417</v>
@@ -3621,7 +4327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3632,10 +4338,10 @@
         <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E72" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F72" t="s">
         <v>417</v>
@@ -3647,7 +4353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3658,10 +4364,10 @@
         <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E73" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F73" t="s">
         <v>417</v>
@@ -3670,10 +4376,16 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I73" t="s">
+        <v>438</v>
+      </c>
+      <c r="J73" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3684,10 +4396,10 @@
         <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E74" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F74" t="s">
         <v>417</v>
@@ -3699,7 +4411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3710,10 +4422,10 @@
         <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E75" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F75" t="s">
         <v>417</v>
@@ -3725,7 +4437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3736,22 +4448,25 @@
         <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E76" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3762,10 +4477,10 @@
         <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E77" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F77" t="s">
         <v>417</v>
@@ -3774,10 +4489,13 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I77" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3788,10 +4506,10 @@
         <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F78" t="s">
         <v>417</v>
@@ -3803,7 +4521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3814,10 +4532,10 @@
         <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E79" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F79" t="s">
         <v>417</v>
@@ -3826,10 +4544,13 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I79" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3840,22 +4561,25 @@
         <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E80" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F80" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="I80" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3866,10 +4590,10 @@
         <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F81" t="s">
         <v>417</v>
@@ -3881,7 +4605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3892,22 +4616,25 @@
         <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E82" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F82" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I82" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3918,22 +4645,25 @@
         <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E83" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F83" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I83" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3944,22 +4674,22 @@
         <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="E84" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="F84" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3970,10 +4700,10 @@
         <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E85" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F85" t="s">
         <v>417</v>
@@ -3985,7 +4715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3996,10 +4726,10 @@
         <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E86" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F86" t="s">
         <v>417</v>
@@ -4011,7 +4741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4022,10 +4752,10 @@
         <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
         <v>417</v>
@@ -4037,7 +4767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4048,10 +4778,10 @@
         <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E88" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
         <v>417</v>
@@ -4063,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4074,22 +4804,25 @@
         <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="E89" t="s">
         <v>414</v>
       </c>
       <c r="F89" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I89" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4100,10 +4833,10 @@
         <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F90" t="s">
         <v>417</v>
@@ -4115,7 +4848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4126,10 +4859,10 @@
         <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E91" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F91" t="s">
         <v>417</v>
@@ -4141,7 +4874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4152,10 +4885,10 @@
         <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E92" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F92" t="s">
         <v>417</v>
@@ -4167,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4178,10 +4911,10 @@
         <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E93" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F93" t="s">
         <v>417</v>
@@ -4193,7 +4926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4204,10 +4937,10 @@
         <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="E94" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F94" t="s">
         <v>417</v>
@@ -4219,7 +4952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4230,10 +4963,10 @@
         <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="E95" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F95" t="s">
         <v>417</v>
@@ -4245,7 +4978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4256,10 +4989,10 @@
         <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E96" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F96" t="s">
         <v>417</v>
@@ -4271,7 +5004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4282,10 +5015,10 @@
         <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E97" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F97" t="s">
         <v>417</v>
@@ -4297,7 +5030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -4308,10 +5041,10 @@
         <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E98" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F98" t="s">
         <v>417</v>
@@ -4323,7 +5056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -4334,7 +5067,7 @@
         <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E99" t="s">
         <v>415</v>
@@ -4346,10 +5079,10 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -4360,10 +5093,10 @@
         <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E100" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F100" t="s">
         <v>417</v>
@@ -4372,10 +5105,13 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="I100" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4386,7 +5122,7 @@
         <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E101" t="s">
         <v>416</v>
@@ -4398,11 +5134,11 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>